--- a/rawfiles/lattes_projetos_financiadores.xlsx
+++ b/rawfiles/lattes_projetos_financiadores.xlsx
@@ -254,6 +254,9 @@
     <t xml:space="preserve">Conservation International - Colombia</t>
   </si>
   <si>
+    <t xml:space="preserve">001600000999</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fundação de Amaparo à Pesquisa do Estado do Amazonas</t>
   </si>
   <si>
@@ -281,7 +284,13 @@
     <t xml:space="preserve">Fundação de Apoio à Pesquisa do Estado do Amazonas</t>
   </si>
   <si>
-    <t xml:space="preserve">001600000999</t>
+    <t xml:space="preserve">001900000994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto Nacional de Colonização e Reforma Agrária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">898700000005</t>
   </si>
   <si>
     <t xml:space="preserve">Instituto de Amparo à Ciência Tecnologia e Inovação do Estado de Roraima</t>
@@ -290,15 +299,6 @@
     <t xml:space="preserve">J9HN00000006</t>
   </si>
   <si>
-    <t xml:space="preserve">001900000994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituto Nacional de Colonização e Reforma Agrária</t>
-  </si>
-  <si>
-    <t xml:space="preserve">898700000005</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOreal Brasil Comercial de Cosmeticos</t>
   </si>
   <si>
@@ -317,24 +317,24 @@
     <t xml:space="preserve">001700000990</t>
   </si>
   <si>
+    <t xml:space="preserve">Universidade Estadual Paulista Júlio de Mesquita Filho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">033000000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidade Federal do Pará</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004400000000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universidade do Estado do Amazonas</t>
   </si>
   <si>
     <t xml:space="preserve">431100000008</t>
   </si>
   <si>
-    <t xml:space="preserve">Universidade Estadual Paulista Júlio de Mesquita Filho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">033000000007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidade Federal do Pará</t>
-  </si>
-  <si>
-    <t xml:space="preserve">004400000000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vitae Apoio à Cultura Educação e Promoção Social</t>
   </si>
   <si>
@@ -353,12 +353,12 @@
     <t xml:space="preserve">Agencia Espanhola de Cooperação Internacional</t>
   </si>
   <si>
+    <t xml:space="preserve">Agencia Española de Cooperación Internacional</t>
+  </si>
+  <si>
     <t xml:space="preserve">Agência Espanhola de Cooperação Internacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Agencia Española de Cooperación Internacional</t>
-  </si>
-  <si>
     <t xml:space="preserve">Agência Goiana de Meio Ambiental</t>
   </si>
   <si>
@@ -380,6 +380,27 @@
     <t xml:space="preserve">Banco do Nordeste do Brasil - FUP/ETENE - FUDECI</t>
   </si>
   <si>
+    <t xml:space="preserve">CENTRO DE PESQUISA E GESTÃO DE RECURSOS PESQUEIROS DO NORTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSELHO FEDERAL DOS DIREITOS DIFUSOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro Nacional de Pesquisa de Peixes Tropicais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001300000993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro Universitário da Fundação de Ensino Octávio Bastos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro Universitário de Anápolis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">546600000001</t>
+  </si>
+  <si>
     <t xml:space="preserve">Centro de Aquicultura da UNESP</t>
   </si>
   <si>
@@ -389,27 +410,6 @@
     <t xml:space="preserve">Centro de Pesquisa e Gestão de Recursos Pesqueiros Continentais</t>
   </si>
   <si>
-    <t xml:space="preserve">CENTRO DE PESQUISA E GESTÃO DE RECURSOS PESQUEIROS DO NORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centro Nacional de Pesquisa de Peixes Tropicais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001300000993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centro Universitário da Fundação de Ensino Octávio Bastos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centro Universitário de Anápolis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">546600000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSELHO FEDERAL DOS DIREITOS DIFUSOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conselho Nacional de Desenvolvimento Científico e Tecnológico Instituto Nac</t>
   </si>
   <si>
@@ -458,6 +458,15 @@
     <t xml:space="preserve">Fund. de Amparo a Pesquisas do Estado do Amazonas.</t>
   </si>
   <si>
+    <t xml:space="preserve">Fundacao Grupo O Boticario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000400000997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundación Omacha</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fundação Araucária de Apoio ao Desenvolvimento Científico e Tecnológico</t>
   </si>
   <si>
@@ -470,6 +479,18 @@
     <t xml:space="preserve">795500000000</t>
   </si>
   <si>
+    <t xml:space="preserve">Fundação O Boticário de Proteção à Natureza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">985600187280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundação Tumucumaque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J8EN00000004</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fundação de Amaparo a Pesquisa do Estado do Amazonas</t>
   </si>
   <si>
@@ -479,12 +500,12 @@
     <t xml:space="preserve">Fundação de Amparao a Pesquisa no Estado do Amazonas</t>
   </si>
   <si>
+    <t xml:space="preserve">Fundação de Amparo a Pesquisa do Amazonas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fundação de Amparo à Pesquisa do Amapá</t>
   </si>
   <si>
-    <t xml:space="preserve">Fundação de Amparo a Pesquisa do Amazonas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fundação de Amparo à Pesquisa do Amazonas</t>
   </si>
   <si>
@@ -494,39 +515,18 @@
     <t xml:space="preserve">K0OO00000000</t>
   </si>
   <si>
-    <t xml:space="preserve">000400000997</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fundação de Amparo à Pesquisa do Estado do Rio Grande do Sul</t>
   </si>
   <si>
     <t xml:space="preserve">040800000004</t>
   </si>
   <si>
-    <t xml:space="preserve">Fundacao Grupo O Boticario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundação O Boticário de Proteção à Natureza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">985600187280</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fundação para o Desenvolvimento da UNESP</t>
   </si>
   <si>
     <t xml:space="preserve">985600043831</t>
   </si>
   <si>
-    <t xml:space="preserve">Fundação Tumucumaque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J8EN00000004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundación Omacha</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fundo Amazônia</t>
   </si>
   <si>
@@ -551,48 +551,48 @@
     <t xml:space="preserve">003100000996</t>
   </si>
   <si>
+    <t xml:space="preserve">INSTITUTO BRASILEIRO DOS RECURSOS NATURAIS RENOVÁVEIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Instituto Brasileiro de Meio Ambiente e dos Recursos Naturais Renovaveis</t>
   </si>
   <si>
-    <t xml:space="preserve">INSTITUTO BRASILEIRO DOS RECURSOS NATURAIS RENOVÁVEIS</t>
+    <t xml:space="preserve">Instituto Federal de Educação, Ciência e Tecnologia do Espírito Santo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">387300000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto Federal de Santa Catarina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">319000000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto Federal do Tocantins Campus Palmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSDQ00000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto Mamirauá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto Nacional de Pesca y Acuicultura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto Oswaldo Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto Pesquisas Energéticas e Nucleares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JCNA00000007</t>
   </si>
   <si>
     <t xml:space="preserve">Instituto de Proteção Ambiental do Amazonas</t>
   </si>
   <si>
-    <t xml:space="preserve">Instituto Federal de Educação, Ciência e Tecnologia do Espírito Santo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">387300000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituto Federal de Santa Catarina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">319000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituto Federal do Tocantins Campus Palmas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSDQ00000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituto Mamirauá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituto Nacional de Pesca y Acuicultura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituto Oswaldo Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituto Pesquisas Energéticas e Nucleares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JCNA00000007</t>
-  </si>
-  <si>
     <t xml:space="preserve">International Foundation for Science</t>
   </si>
   <si>
@@ -632,6 +632,9 @@
     <t xml:space="preserve">IYE700000006</t>
   </si>
   <si>
+    <t xml:space="preserve">PROGRAMA INSTITUCIONAL DE BOLSAS DE INICIAÇÃO CIENTÍFICA DA UEMA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Petróleo Brasileiro SA</t>
   </si>
   <si>
@@ -644,30 +647,27 @@
     <t xml:space="preserve">Prodetab</t>
   </si>
   <si>
-    <t xml:space="preserve">PROGRAMA INSTITUCIONAL DE BOLSAS DE INICIAÇÃO CIENTÍFICA DA UEMA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rainforest Biodiversity Group</t>
   </si>
   <si>
     <t xml:space="preserve">Reserva de Desenvolvimento Sustentável Mamirauá</t>
   </si>
   <si>
+    <t xml:space="preserve">SECRETARIA EDUCAÇÃO PROFISSIONAL E TECNOLOGICA MINISTERIO DA EDUCAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretaria Especial de Aquicultura e Pesca da Presidência da República</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretaria Especial de Aqüicultura e Pesca da Presidência da República</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretaria Executiva de Ciencia Tecnologia e Meio Ambiente</t>
+  </si>
+  <si>
     <t xml:space="preserve">Secretaria de Pesca e Aquicultura</t>
   </si>
   <si>
-    <t xml:space="preserve">SECRETARIA EDUCAÇÃO PROFISSIONAL E TECNOLOGICA MINISTERIO DA EDUCAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secretaria Especial de Aquicultura e Pesca da Presidência da República</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secretaria Especial de Aqüicultura e Pesca da Presidência da República</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secretaria Executiva de Ciencia Tecnologia e Meio Ambiente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Serviço de Apoio as Micro e Pequenas Empresas do Distrito Federal</t>
   </si>
   <si>
@@ -692,37 +692,37 @@
     <t xml:space="preserve">Universidad de Cadiz -Facultad de Ciencias del Mar</t>
   </si>
   <si>
+    <t xml:space="preserve">Universidade Estácio de Sá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294800000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidade Federal da Grande Dourados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I3CJ00000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidade Federal de Mato Grosso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">033200000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidade Federal do Oeste do Pará</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2HF00000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidade Federal do Tocantins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460900000006</t>
+  </si>
+  <si>
     <t xml:space="preserve">985600090171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidade Estácio de Sá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">294800000006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidade Federal da Grande Dourados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I3CJ00000006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidade Federal de Mato Grosso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">033200000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidade Federal do Oeste do Pará</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2HF00000009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidade Federal do Tocantins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">460900000006</t>
   </si>
 </sst>
 </file>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
         <v>80</v>
-      </c>
-      <c r="B45" t="s">
-        <v>81</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
         <v>82</v>
-      </c>
-      <c r="B46" t="s">
-        <v>83</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
         <v>84</v>
-      </c>
-      <c r="B47" t="s">
-        <v>85</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
         <v>86</v>
-      </c>
-      <c r="B48" t="s">
-        <v>87</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
@@ -1587,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
@@ -1606,10 +1606,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" t="s">
         <v>88</v>
-      </c>
-      <c r="B51" t="s">
-        <v>81</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
@@ -1617,10 +1617,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
         <v>90</v>
-      </c>
-      <c r="B53" t="s">
-        <v>91</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
         <v>92</v>
@@ -1796,7 +1796,7 @@
         <v>112</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1807,7 +1807,7 @@
         <v>113</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1818,7 +1818,7 @@
         <v>114</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1892,10 +1892,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1903,10 +1903,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1914,10 +1914,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1925,10 +1925,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -1950,7 +1950,7 @@
         <v>131</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -2027,7 +2027,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -2060,7 +2060,7 @@
         <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -2148,7 +2148,7 @@
         <v>148</v>
       </c>
       <c r="B100" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
@@ -2156,10 +2156,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -2167,10 +2167,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -2178,10 +2178,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" t="s">
         <v>154</v>
-      </c>
-      <c r="B104" t="s">
-        <v>81</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -2203,7 +2203,7 @@
         <v>155</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -2211,10 +2211,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -2222,10 +2222,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B108" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -2244,10 +2244,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="B109" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -2255,10 +2255,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -2269,7 +2269,7 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -2277,10 +2277,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="B113" t="s">
         <v>59</v>
@@ -2299,10 +2299,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B114" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B115" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
@@ -2321,10 +2321,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="B116" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="B117" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>167</v>
+      </c>
+      <c r="B118" t="s">
         <v>168</v>
-      </c>
-      <c r="B118" t="s">
-        <v>169</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -2354,10 +2354,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" t="s">
         <v>170</v>
-      </c>
-      <c r="B119" t="s">
-        <v>98</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -2412,7 +2412,7 @@
         <v>179</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -2423,7 +2423,7 @@
         <v>180</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -2434,7 +2434,7 @@
         <v>181</v>
       </c>
       <c r="B126" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B127" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -2453,10 +2453,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B128" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -2464,10 +2464,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B129" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
@@ -2478,7 +2478,7 @@
         <v>188</v>
       </c>
       <c r="B130" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -2489,7 +2489,7 @@
         <v>189</v>
       </c>
       <c r="B131" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -2500,7 +2500,7 @@
         <v>190</v>
       </c>
       <c r="B132" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B133" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -2621,7 +2621,7 @@
         <v>203</v>
       </c>
       <c r="B143" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -2643,7 +2643,7 @@
         <v>206</v>
       </c>
       <c r="B145" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -2654,7 +2654,7 @@
         <v>207</v>
       </c>
       <c r="B146" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>208</v>
+      </c>
+      <c r="B147" t="s">
         <v>209</v>
-      </c>
-      <c r="B147" t="s">
-        <v>8</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
@@ -2676,7 +2676,7 @@
         <v>210</v>
       </c>
       <c r="B148" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2698,7 +2698,7 @@
         <v>212</v>
       </c>
       <c r="B150" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         <v>213</v>
       </c>
       <c r="B151" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2717,10 +2717,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B152" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2731,7 +2731,7 @@
         <v>214</v>
       </c>
       <c r="B153" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
@@ -2742,7 +2742,7 @@
         <v>215</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -2753,7 +2753,7 @@
         <v>216</v>
       </c>
       <c r="B155" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>217</v>
       </c>
       <c r="B156" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2808,7 +2808,7 @@
         <v>223</v>
       </c>
       <c r="B160" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2838,10 +2838,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="B163" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -2849,10 +2849,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B164" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2860,10 +2860,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B165" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -2871,10 +2871,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B166" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -2882,10 +2882,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B167" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="B168" t="s">
         <v>236</v>
